--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/15/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.200599999999995</v>
+        <v>5.885499999999999</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.40760000000002</v>
+        <v>-21.41010000000002</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,10 +516,10 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.800600000000006</v>
+        <v>4.673000000000003</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.1151</v>
+        <v>-13.9838</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.7672</v>
+        <v>-11.94320000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.7129</v>
+        <v>-13.27149999999999</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.49449999999998</v>
+        <v>-20.39539999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.12810000000001</v>
+        <v>-21.43450000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.06849999999999</v>
+        <v>-11.27149999999999</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.45190000000003</v>
+        <v>-21.32820000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.43690000000003</v>
+        <v>-22.54890000000004</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
